--- a/버그리포트/190203_버그리포트_이정현.xlsx
+++ b/버그리포트/190203_버그리포트_이정현.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD4D5F7-8499-46BE-A5E3-A0D3A1B74F26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DA5CF-6C28-4283-9020-EDD33546B023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug_Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,41 +20,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+  <si>
+    <t xml:space="preserve">위치 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프롤로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM이 루프되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비속어 수정되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동력이 최초 10에서 맵을 이동하자 99로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급 이슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭파 사건 - 이슈 설명 후 현장 조사(범인과의 대화) 중 쉐이킹이 발생하는데, UI가 움직이며 비정상적으로 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원진의 최대 체력이 5로 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급이슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동에서 압구정동 이동 후 마켓 UI가 바뀌기 전에 마켓 입장을 누르면 일반 상점이 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버씬 BGM이 씬을 이탈해도 반복된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 종료를 클릭하여도 행동력이 최대치로 회복되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동이 일원으로 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버에서 불러오기를 할 시, 월드맵 옵션에서 Default 값을 클릭할 시 프롤로그로 돌아가던 현상이 일어나지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세이브 기능 작동하지 않음, 불러오기 시 프롤로그로 이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만든이 선택 후 BGM 출력되지 않음, 메인 화면으로 복귀해도 마찬가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불러오기 자체는 정상 작동하나, 메인화면 BGM(박우주 테마)가 함께 출력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">위치 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프롤로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM이 루프되지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비속어 수정되지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동력이 최초 10에서 맵을 이동하자 99로 변경</t>
+    <t>크리티컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사 : 결투 X 격투 O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 입장에 행동력이 소모되지 않으나, 반복 입장시 상품은 변함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불러오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,111 +190,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폭파 사건 - 이슈 설명 후 현장 조사(범인과의 대화) 중 쉐이킹이 발생하는데, UI가 움직이며 비정상적으로 보임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵 옵션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강원진의 최대 체력이 5로 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>긴급이슈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이오칩, 나노 폭탄 테러 인물과 대화가 바뀌며 게임 정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대치동에서 압구정동 이동 후 마켓 UI가 바뀌기 전에 마켓 입장을 누르면 일반 상점이 출력된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 오버씬 BGM이 씬을 이탈해도 반복된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턴 종료를 클릭하여도 행동력이 최대치로 회복되지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역타일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일원동이 일원으로 출력된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 오버에서 불러오기를 할 시, 월드맵 옵션에서 Default 값을 클릭할 시 프롤로그로 돌아가던 현상이 일어나지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">세이브 기능 작동하지 않음, 불러오기 시 프롤로그로 이동 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동력이 턴을 종료해도 최대치로 회복되지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서버전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트버전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만든이 선택 후 BGM 출력되지 않음, 메인 화면으로 복귀해도 마찬가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵 옵션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불러오기 자체는 정상 작동하나, 메인화면 BGM(박우주 테마)가 함께 출력됨</t>
+    <t>군부대 군견, 텍스트 스크립트 없이 바로 격투로 돌입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 데미지 1이 표기되었으나 실직적으로 데미지는 입지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소 후 재돌입 시 다른 긴급 이슈가 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건 가이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 행동(지역 타일 이동)시에 사라졌다가 등장하거나를 반복함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오칩, 경한기업 폭탄 테러 인물과 대화가 바뀌며 게임 정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전민원과 격투 개시 직후 게임 멈춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">불러오기 이후 존재하지 않던 긴급 이슈 다수 출현, 치안 도표가 상승한 지역 타일이 있는 반면 그렇지 않은 타일도 존재 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">씬을 스킵하면 속성 선택까지는 출력되나 선택 후 멈춤 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,165 +552,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.3</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C16">
+        <v>0.8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
         <v>0.8</v>
       </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/버그리포트/190203_버그리포트_이정현.xlsx
+++ b/버그리포트/190203_버그리포트_이정현.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DA5CF-6C28-4283-9020-EDD33546B023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Bug_Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -367,7 +366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -544,18 +543,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
